--- a/output/fit_clients/fit_round_435.xlsx
+++ b/output/fit_clients/fit_round_435.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1980734251.655377</v>
+        <v>2518325257.379181</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09390745778791937</v>
+        <v>0.07604476443794557</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03436776304988482</v>
+        <v>0.03631074504773207</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>990367118.8983562</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2339932496.346882</v>
+        <v>2608032329.134228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.148868325308699</v>
+        <v>0.1296956833324414</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04562703230898571</v>
+        <v>0.04575395795945382</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1169966340.901107</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3226723203.898864</v>
+        <v>3194857861.274115</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1333231352080087</v>
+        <v>0.1386334721207096</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03337446393945877</v>
+        <v>0.02945824421868272</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>157</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1613361561.365326</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3290239277.925748</v>
+        <v>4099596078.092147</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09605660548804228</v>
+        <v>0.08741056681421436</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03458647044829555</v>
+        <v>0.03885910804030764</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>161</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1645119689.661659</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2474892196.993067</v>
+        <v>2291567670.275139</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09062569842292173</v>
+        <v>0.1216236410900723</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05373793580480511</v>
+        <v>0.0401782176382421</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>82</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1237446076.713181</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3144579890.146909</v>
+        <v>2720971336.799476</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07893342713576769</v>
+        <v>0.09431267387576805</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04641567409429793</v>
+        <v>0.04435671804901498</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>137</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1572289896.123981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2602017777.453994</v>
+        <v>3807715170.434201</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2132844208613986</v>
+        <v>0.2040069378952459</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03141363201470312</v>
+        <v>0.02553835314388412</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>138</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1301008905.575292</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1688190450.234344</v>
+        <v>1468583958.934483</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1744123134774541</v>
+        <v>0.1407960932469327</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03559517023231375</v>
+        <v>0.02870651110328256</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>844095295.0059741</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5022995019.412219</v>
+        <v>4141051028.428019</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1914059801117172</v>
+        <v>0.1409875234532796</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05409179113532447</v>
+        <v>0.04113357228917881</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>183</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2511497610.84936</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3827301438.274127</v>
+        <v>3213905630.620607</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1870097743090113</v>
+        <v>0.1361964252096617</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04328144570724091</v>
+        <v>0.03782967858511797</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>180</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1913650719.769278</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2817228896.92063</v>
+        <v>2017486191.90985</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1641095234956479</v>
+        <v>0.1954633838499231</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0443031805356091</v>
+        <v>0.03597471378057621</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>149</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1408614449.764252</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3571527533.86516</v>
+        <v>4965715353.8888</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07814437763991852</v>
+        <v>0.08488084306738465</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03144931309247723</v>
+        <v>0.02138762616553235</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>146</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1785763843.641989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2556117967.84202</v>
+        <v>3433749153.52491</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1262542280230572</v>
+        <v>0.146839297761801</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0420304940389938</v>
+        <v>0.03906843446690896</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>139</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1278059050.51951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1668976512.967185</v>
+        <v>1692977870.279383</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09052681879971954</v>
+        <v>0.07273155741586015</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03232338111177555</v>
+        <v>0.03909148271439598</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>834488380.323617</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1746515072.175453</v>
+        <v>2096244437.758495</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08797249781885103</v>
+        <v>0.08632005240075892</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04316288980053808</v>
+        <v>0.03330265261069864</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>90</v>
-      </c>
-      <c r="J16" t="n">
-        <v>873257634.2306111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4220725131.133539</v>
+        <v>4619636749.104875</v>
       </c>
       <c r="F17" t="n">
-        <v>0.127972897205181</v>
+        <v>0.1169877006476504</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04016517921494134</v>
+        <v>0.04982480408053395</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>128</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2110362589.293105</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2998763581.152401</v>
+        <v>2473812635.538996</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1134393563052571</v>
+        <v>0.1808467486548445</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02578998766802721</v>
+        <v>0.03016617965032745</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>142</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1499381820.919711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1176474238.321022</v>
+        <v>851141832.1167051</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1605738035960196</v>
+        <v>0.1344727879743905</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02637425017709513</v>
+        <v>0.02692301859581841</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>588237191.3511772</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2191431038.733632</v>
+        <v>2649022186.210227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1307560839550532</v>
+        <v>0.1390021727497677</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01926474721229822</v>
+        <v>0.0220307360858421</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1095715525.339432</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2247310058.548917</v>
+        <v>2474433769.15974</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0866899622576876</v>
+        <v>0.07931473131093823</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0359447876744623</v>
+        <v>0.02992460967420734</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1123655041.588101</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3611558326.752335</v>
+        <v>3846990030.497771</v>
       </c>
       <c r="F22" t="n">
-        <v>0.117118322326994</v>
+        <v>0.1018548267842527</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04383088307769694</v>
+        <v>0.03835632911809567</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>121</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1805779188.304055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1113622220.068025</v>
+        <v>1083534553.25565</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1634074488664973</v>
+        <v>0.1138177789274766</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05222797271704566</v>
+        <v>0.04372628619724471</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>556811161.1085728</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3786732067.528254</v>
+        <v>3826557043.798962</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1366474617777363</v>
+        <v>0.1166217673045617</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02491978111784892</v>
+        <v>0.03764272177059366</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>127</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1893366016.122182</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1328083637.046201</v>
+        <v>1412216168.965747</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0933316600528144</v>
+        <v>0.107018243050765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02008031080137785</v>
+        <v>0.02092668562855249</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>664041807.0339658</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1018960045.443111</v>
+        <v>932918223.4326503</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1127570682084161</v>
+        <v>0.1046136751924058</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03741735849677418</v>
+        <v>0.03269525710772954</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>509479999.4498478</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3268149238.755534</v>
+        <v>2849812461.004148</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1539570003705406</v>
+        <v>0.1261865405304742</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0170118794819283</v>
+        <v>0.0198887840604419</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1634074665.899204</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2543907467.226336</v>
+        <v>3182478966.056913</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1200192671516582</v>
+        <v>0.1302663269828271</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0367524024711032</v>
+        <v>0.03437675260462921</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>142</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1271953705.252559</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4818162388.134782</v>
+        <v>5676754597.433022</v>
       </c>
       <c r="F29" t="n">
-        <v>0.104983429669767</v>
+        <v>0.1495643395169785</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04569708713430493</v>
+        <v>0.03394431122299164</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>192</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2409081154.225208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2263397224.380663</v>
+        <v>1672755728.84039</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1025504634742673</v>
+        <v>0.08780814000436238</v>
       </c>
       <c r="G30" t="n">
-        <v>0.032662221813623</v>
+        <v>0.03060777498491978</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1131698679.697346</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1067677377.743677</v>
+        <v>1268235120.380959</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09911973962513992</v>
+        <v>0.1117707724244998</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03459337130872711</v>
+        <v>0.05058564223253557</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>533838671.4907312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1370098377.593988</v>
+        <v>1837689182.139375</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08111972697110474</v>
+        <v>0.08998873059576501</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03276770564383766</v>
+        <v>0.02556533428334156</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>685049230.2444733</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2448768971.728332</v>
+        <v>2979893291.626188</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1580073037568502</v>
+        <v>0.2039059584499588</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05281728227040092</v>
+        <v>0.04950393398112306</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>133</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1224384528.4443</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1087083911.817922</v>
+        <v>985533366.4105841</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07917824585698892</v>
+        <v>0.08696736217238651</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02027842169787308</v>
+        <v>0.01763186244879741</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>543541979.5019553</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>931899268.4481571</v>
+        <v>1046617929.530067</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1083039552712235</v>
+        <v>0.07291034532386748</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03727492442771636</v>
+        <v>0.03909539859642245</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>465949667.7448785</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2552867368.262158</v>
+        <v>2565003858.856708</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1235195715628834</v>
+        <v>0.1687193418281712</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01936062151478996</v>
+        <v>0.02794369975694984</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>109</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1276433701.907378</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2612195846.048678</v>
+        <v>2335707441.881051</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09634202434028966</v>
+        <v>0.07155538879388181</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03175726889590896</v>
+        <v>0.03876903766160415</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>118</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1306098034.527104</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2125142967.407632</v>
+        <v>1436420544.542355</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08985955884825773</v>
+        <v>0.09000398522366847</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03820709164670887</v>
+        <v>0.0286235556392242</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1062571444.675534</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2132586715.557883</v>
+        <v>1423035688.012422</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1296364372423334</v>
+        <v>0.1220607310215802</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02801313617256095</v>
+        <v>0.03238649035221843</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1066293332.241547</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1499580652.816104</v>
+        <v>1325730579.979988</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1200357348760776</v>
+        <v>0.1453049798096391</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04623411522528806</v>
+        <v>0.04632242646036562</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>749790292.7367653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2830175191.863667</v>
+        <v>2705933789.017575</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1593955986300449</v>
+        <v>0.1498841329794153</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03793731971037446</v>
+        <v>0.03901803899419479</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>108</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1415087588.884721</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3212169642.44866</v>
+        <v>2744930790.125459</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1021662457106355</v>
+        <v>0.07924980994643996</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03628858499166972</v>
+        <v>0.02988471716302038</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>141</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1606084796.274523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2857289405.667524</v>
+        <v>2691469581.576586</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1484444834599202</v>
+        <v>0.1761201756103979</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02559597979713821</v>
+        <v>0.0176768350462259</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>150</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1428644715.570074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1471625914.576007</v>
+        <v>2182986389.185551</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09571457026653479</v>
+        <v>0.1014628917412171</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02239375961101597</v>
+        <v>0.0312485750822296</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>735812958.2157511</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2117186323.127622</v>
+        <v>1958300925.48471</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1784500821035279</v>
+        <v>0.18520848276119</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03879640453070209</v>
+        <v>0.04388108934180263</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1058593164.232877</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5178397650.069989</v>
+        <v>4198204570.073395</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1278634390349255</v>
+        <v>0.1529974680717767</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05664461715344839</v>
+        <v>0.06081185634273548</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>155</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2589198862.093606</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3493040350.044718</v>
+        <v>4641774057.91248</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1279753453686321</v>
+        <v>0.1577128825156909</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0556278777722069</v>
+        <v>0.03933101980939323</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>116</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1746520145.45373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4481929687.486545</v>
+        <v>4443925824.807244</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1004229206833414</v>
+        <v>0.07317744628823145</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02620668779734919</v>
+        <v>0.03742070628038897</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>142</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2240964850.097529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1602115060.501096</v>
+        <v>1228633435.164103</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1504827982231965</v>
+        <v>0.1615145563851603</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03499340918426386</v>
+        <v>0.04237405844134498</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>801057546.4277542</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2635061645.423006</v>
+        <v>3090336286.289034</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1769438767986056</v>
+        <v>0.1140767248254216</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04207887876002932</v>
+        <v>0.03635847313202716</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>148</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1317530908.541048</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1469075669.265819</v>
+        <v>949456004.6278321</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1661484115839837</v>
+        <v>0.1266549242075523</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03737167379222241</v>
+        <v>0.03674579975357373</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>734537842.5979894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3278686910.123662</v>
+        <v>3652767211.879644</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1333743995925648</v>
+        <v>0.09383443772516732</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04144350994875119</v>
+        <v>0.04123039206172086</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>179</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1639343554.008802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3367797410.323286</v>
+        <v>3198671392.793607</v>
       </c>
       <c r="F53" t="n">
-        <v>0.166392903454014</v>
+        <v>0.1280978318853364</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02485935961153248</v>
+        <v>0.0252790106025945</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>126</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1683898712.24897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3245881909.661648</v>
+        <v>4001364679.795332</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1134025948798979</v>
+        <v>0.127745087382361</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0501704406568564</v>
+        <v>0.05165468148209894</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>143</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1622940959.699733</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3096549874.955488</v>
+        <v>3377704843.300505</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1495625352370271</v>
+        <v>0.1574870548816902</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02356804420941325</v>
+        <v>0.02963916209147667</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1548274872.513964</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1401313045.886572</v>
+        <v>1842639681.341149</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1025288634625027</v>
+        <v>0.1450327176318217</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05070206577042904</v>
+        <v>0.05286969251232469</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>700656579.8382086</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3780908614.871459</v>
+        <v>3661209577.440668</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1376268036837323</v>
+        <v>0.1477667163387337</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0220231147011439</v>
+        <v>0.01986644901685953</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>138</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1890454377.425521</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1358574722.907454</v>
+        <v>1269104246.297992</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1918144442903012</v>
+        <v>0.175461004952026</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0329162358710941</v>
+        <v>0.03077855769594805</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>679287405.5049281</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3715961899.862705</v>
+        <v>4558225282.526777</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1006305694755065</v>
+        <v>0.1200410519065708</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04222359409122396</v>
+        <v>0.04852744421034119</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1857980939.596011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3596174456.126875</v>
+        <v>3043921079.031726</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1624504336933413</v>
+        <v>0.1926408861368772</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02532029821886494</v>
+        <v>0.02290670404181085</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>135</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1798087360.966441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2758122248.426983</v>
+        <v>3286683783.86504</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1368278093638732</v>
+        <v>0.1481200261085242</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02954550584433735</v>
+        <v>0.02717223687426774</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>148</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1379061127.505115</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1463680106.794319</v>
+        <v>2001224687.987498</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1831843356051752</v>
+        <v>0.178369789417292</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03204727148288528</v>
+        <v>0.04329564106400582</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>731840031.0447882</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5427063690.656316</v>
+        <v>3470305447.256275</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0751456710309614</v>
+        <v>0.08545023633373645</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02893479399722051</v>
+        <v>0.04009605831437742</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2713531844.080209</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4442067477.511174</v>
+        <v>4618444657.347963</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1179160672181728</v>
+        <v>0.1654795437675474</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02362465322212162</v>
+        <v>0.03397939891688384</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>135</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2221033805.732187</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5224517963.244447</v>
+        <v>4322348687.735821</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1092045774927226</v>
+        <v>0.1243452591336416</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02166543989675733</v>
+        <v>0.02892200007544671</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>156</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2612258927.157613</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4991466546.906707</v>
+        <v>4501119891.973367</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1606006535572952</v>
+        <v>0.1076735868219883</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03447112968967873</v>
+        <v>0.03790194919393657</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>126</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2495733300.173537</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3455905557.87036</v>
+        <v>3078849172.621191</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09884079541118845</v>
+        <v>0.08528799578996556</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04735593197944565</v>
+        <v>0.04338460480047476</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>139</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1727952758.618899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3850708361.699168</v>
+        <v>6055893800.183949</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1094455435974725</v>
+        <v>0.143269849978102</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04546276137073403</v>
+        <v>0.03350629464012818</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>139</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1925354167.605776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1865675305.658153</v>
+        <v>1777869043.626812</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1819024460462619</v>
+        <v>0.1330213360567447</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05296015729587017</v>
+        <v>0.0416656180636893</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>932837640.4116479</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2596524688.931656</v>
+        <v>3079692717.955082</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06850984659622011</v>
+        <v>0.1017190782420176</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04068734130476793</v>
+        <v>0.04539070433427465</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>124</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1298262295.226645</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3522216945.007861</v>
+        <v>3859213854.876898</v>
       </c>
       <c r="F71" t="n">
-        <v>0.166802844336711</v>
+        <v>0.1598401701939462</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02472722621588674</v>
+        <v>0.0327204409429825</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>158</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1761108467.880091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1826643150.975429</v>
+        <v>1865268186.660292</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1070999065833428</v>
+        <v>0.09554065492068438</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05174719055724162</v>
+        <v>0.03383518595705442</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>913321549.7803985</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2253644105.479642</v>
+        <v>2919685531.670599</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09765824915997326</v>
+        <v>0.07801345648654691</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03986584535363408</v>
+        <v>0.04776861901006586</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>165</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1126822117.090142</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3574232393.856645</v>
+        <v>2821626694.685385</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1576059296176608</v>
+        <v>0.1407412285289028</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03530077768242108</v>
+        <v>0.02586606222248504</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>148</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1787116212.712803</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1894874322.163079</v>
+        <v>1930540790.119082</v>
       </c>
       <c r="F75" t="n">
-        <v>0.137839377220428</v>
+        <v>0.1395205410600003</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02969763698032899</v>
+        <v>0.02900038299349839</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>947437135.0890818</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4130653057.94066</v>
+        <v>3599298654.50911</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1059314552214731</v>
+        <v>0.1023768271374933</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03295493718897553</v>
+        <v>0.03095687505419631</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2065326519.20598</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1466046469.773677</v>
+        <v>2164673978.185125</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1544450537598325</v>
+        <v>0.1728666428211278</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02485339186568503</v>
+        <v>0.02039547262983204</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>733023217.5676367</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4263441042.370056</v>
+        <v>4719438243.414296</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09733779777431371</v>
+        <v>0.08328463648940647</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03654302611249234</v>
+        <v>0.03530222602677726</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>151</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2131720468.076865</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1643820818.556006</v>
+        <v>1720450971.580449</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1674767060897819</v>
+        <v>0.1278575970066761</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03378998732625246</v>
+        <v>0.02817470728891776</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>821910468.6720194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4773454087.261209</v>
+        <v>5630660539.355315</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1095272979605498</v>
+        <v>0.1100579236888023</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03559254315276195</v>
+        <v>0.02805526540258807</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2386727081.606279</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4180792416.970555</v>
+        <v>4767737100.05423</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1177438496966291</v>
+        <v>0.120631910298052</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02249951876112519</v>
+        <v>0.02149504529793069</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2090396178.411799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4843406857.393751</v>
+        <v>3743506460.776902</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2093355467643997</v>
+        <v>0.2015517951679797</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02367162646606574</v>
+        <v>0.02645375690395762</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>152</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2421703421.417332</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2033117638.022303</v>
+        <v>2185465719.757135</v>
       </c>
       <c r="F83" t="n">
-        <v>0.135116235297907</v>
+        <v>0.1366541975674215</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04173829180438036</v>
+        <v>0.03479504260801135</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1016558808.490356</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2263592380.234258</v>
+        <v>2027421435.241496</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07537455801614788</v>
+        <v>0.07783182745693319</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03720451195774501</v>
+        <v>0.04737438811690553</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1131796156.588368</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2900282685.07595</v>
+        <v>2868765745.298688</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1187210568078585</v>
+        <v>0.1238627884035611</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05256430409111962</v>
+        <v>0.05672524773901444</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>164</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1450141391.686426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1834896527.28583</v>
+        <v>2376228227.922042</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1384023687278927</v>
+        <v>0.1578376631046412</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02424935353097171</v>
+        <v>0.02426131028698584</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>917448268.3321643</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1453406594.908445</v>
+        <v>1408501101.947066</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1884348014486217</v>
+        <v>0.1844337588017359</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03986548318971965</v>
+        <v>0.04020744827459103</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>726703418.0059087</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3106983253.129106</v>
+        <v>2662134332.002252</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1762583816894237</v>
+        <v>0.1763985817022304</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03555227493016441</v>
+        <v>0.02575751637124391</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>172</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1553491667.604253</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2688037701.407073</v>
+        <v>3402681409.637644</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1014613504360501</v>
+        <v>0.135317746927844</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02952419780773926</v>
+        <v>0.03301560759763093</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>146</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1344018911.713852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1479807057.858503</v>
+        <v>2105953597.551133</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1104154664963408</v>
+        <v>0.1077369685482045</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03447208546776873</v>
+        <v>0.04956410082650865</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>739903503.9816509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1658131302.632153</v>
+        <v>1521796519.517974</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1196118046328777</v>
+        <v>0.1360121262746245</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0416407140906877</v>
+        <v>0.05846716682355035</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>829065669.1625065</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1996292298.090305</v>
+        <v>2530631007.214931</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07290224295401478</v>
+        <v>0.08467621145267558</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0429460158441969</v>
+        <v>0.03624550755485972</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>121</v>
-      </c>
-      <c r="J92" t="n">
-        <v>998146094.9376266</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4401926110.153597</v>
+        <v>4310915476.109002</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1032748959408916</v>
+        <v>0.1422592283106222</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05023190291896026</v>
+        <v>0.03452022390054733</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2200963029.731104</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1960804718.345666</v>
+        <v>1926219446.971049</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1411446555131708</v>
+        <v>0.1434047267689309</v>
       </c>
       <c r="G94" t="n">
-        <v>0.035085624116746</v>
+        <v>0.03649348452300934</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>980402352.411649</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2786689742.624804</v>
+        <v>2585353159.27906</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09596606014129538</v>
+        <v>0.1006993068024304</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03884787107244929</v>
+        <v>0.03907194387595777</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>105</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1393344886.607528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1733838595.87749</v>
+        <v>1755568347.554749</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1162432217937241</v>
+        <v>0.1201495386743446</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03920158364738146</v>
+        <v>0.0335276683476567</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>866919313.3492491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3486739974.971591</v>
+        <v>5327497684.294786</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1581794005141711</v>
+        <v>0.1701184817971609</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02468868052130625</v>
+        <v>0.02017752285158584</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>140</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1743370002.601119</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3895479469.684909</v>
+        <v>3061646346.711505</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1216047363819398</v>
+        <v>0.1273960986024753</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02239452606168557</v>
+        <v>0.02953755882685666</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1947739780.271416</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2239884675.034727</v>
+        <v>2494305387.999939</v>
       </c>
       <c r="F99" t="n">
-        <v>0.118781584276424</v>
+        <v>0.1140364844516028</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02620545550285276</v>
+        <v>0.02931336386901984</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>138</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1119942268.421595</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3663567269.797931</v>
+        <v>4047273151.172377</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1456985177721205</v>
+        <v>0.1677424836576071</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02634841150679557</v>
+        <v>0.01938567353793702</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>137</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1831783678.722159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2921937335.324862</v>
+        <v>3005685816.177766</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1537105350834459</v>
+        <v>0.1655415855982532</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05681975430810862</v>
+        <v>0.0407539786938022</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>177</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1460968746.425846</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_435.xlsx
+++ b/output/fit_clients/fit_round_435.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2518325257.379181</v>
+        <v>2375597602.771551</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07604476443794557</v>
+        <v>0.09128908911228496</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03631074504773207</v>
+        <v>0.03138802361318384</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2608032329.134228</v>
+        <v>2571942446.418119</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1296956833324414</v>
+        <v>0.1256508205135575</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04575395795945382</v>
+        <v>0.03929581246683699</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3194857861.274115</v>
+        <v>3990883130.631559</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1386334721207096</v>
+        <v>0.1177868878107501</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02945824421868272</v>
+        <v>0.02693131815092746</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4099596078.092147</v>
+        <v>3785116075.072468</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08741056681421436</v>
+        <v>0.07238768941848683</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03885910804030764</v>
+        <v>0.03980081422877041</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2291567670.275139</v>
+        <v>2213573634.423946</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1216236410900723</v>
+        <v>0.1137371826875501</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0401782176382421</v>
+        <v>0.05647237381778887</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2720971336.799476</v>
+        <v>3108343214.209201</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09431267387576805</v>
+        <v>0.09313189583469018</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04435671804901498</v>
+        <v>0.03460287874958724</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3807715170.434201</v>
+        <v>3240160546.614559</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2040069378952459</v>
+        <v>0.1631158914298511</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02553835314388412</v>
+        <v>0.02367364639161133</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1468583958.934483</v>
+        <v>1767821776.860662</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1407960932469327</v>
+        <v>0.1850571777129605</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02870651110328256</v>
+        <v>0.02552735047202495</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4141051028.428019</v>
+        <v>5232413470.987682</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1409875234532796</v>
+        <v>0.2066282778378812</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04113357228917881</v>
+        <v>0.04729973119851225</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3213905630.620607</v>
+        <v>3089849372.993263</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1361964252096617</v>
+        <v>0.1589350819663586</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03782967858511797</v>
+        <v>0.03278133381566523</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2017486191.90985</v>
+        <v>3320565973.250834</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1954633838499231</v>
+        <v>0.1205736026755719</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03597471378057621</v>
+        <v>0.05202180012572605</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4965715353.8888</v>
+        <v>3601473814.822745</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08488084306738465</v>
+        <v>0.09475132394840904</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02138762616553235</v>
+        <v>0.02784571083761587</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3433749153.52491</v>
+        <v>2657894748.848124</v>
       </c>
       <c r="F14" t="n">
-        <v>0.146839297761801</v>
+        <v>0.1342145284271908</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03906843446690896</v>
+        <v>0.04328803028704221</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1692977870.279383</v>
+        <v>1394974486.755495</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07273155741586015</v>
+        <v>0.1024967348495873</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03909148271439598</v>
+        <v>0.04117528293797279</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2096244437.758495</v>
+        <v>2681129687.585506</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08632005240075892</v>
+        <v>0.104488765772116</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03330265261069864</v>
+        <v>0.05159634143242048</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4619636749.104875</v>
+        <v>3249049858.52226</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1169877006476504</v>
+        <v>0.1703525956015371</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04982480408053395</v>
+        <v>0.03827193698115702</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2473812635.538996</v>
+        <v>3702857525.217327</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1808467486548445</v>
+        <v>0.1274651231358941</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03016617965032745</v>
+        <v>0.02932987042382565</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>851141832.1167051</v>
+        <v>1074953976.985704</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1344727879743905</v>
+        <v>0.1459826768998829</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02692301859581841</v>
+        <v>0.02361787245634313</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2649022186.210227</v>
+        <v>2775101703.189262</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1390021727497677</v>
+        <v>0.1556881123966908</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0220307360858421</v>
+        <v>0.02343529921855821</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2474433769.15974</v>
+        <v>2231618068.75328</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07931473131093823</v>
+        <v>0.07771644945242624</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02992460967420734</v>
+        <v>0.0452133033323691</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3846990030.497771</v>
+        <v>3556819660.767831</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1018548267842527</v>
+        <v>0.1009011705610364</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03835632911809567</v>
+        <v>0.05030205440455171</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1083534553.25565</v>
+        <v>1382151506.99828</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1138177789274766</v>
+        <v>0.1819319960997708</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04372628619724471</v>
+        <v>0.04456386982583599</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3826557043.798962</v>
+        <v>3356674444.20318</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1166217673045617</v>
+        <v>0.1466416160914623</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03764272177059366</v>
+        <v>0.03126326931321417</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1412216168.965747</v>
+        <v>1185719349.130267</v>
       </c>
       <c r="F25" t="n">
-        <v>0.107018243050765</v>
+        <v>0.09666120335661563</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02092668562855249</v>
+        <v>0.02913805131497017</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>932918223.4326503</v>
+        <v>1415959439.120114</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1046136751924058</v>
+        <v>0.1030328553320205</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03269525710772954</v>
+        <v>0.03376120697315763</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2849812461.004148</v>
+        <v>3890339552.843016</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1261865405304742</v>
+        <v>0.1484461813093203</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0198887840604419</v>
+        <v>0.02014525189698131</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3182478966.056913</v>
+        <v>3275331137.114902</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1302663269828271</v>
+        <v>0.0969801725075909</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03437675260462921</v>
+        <v>0.04476654551885371</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5676754597.433022</v>
+        <v>4354344421.430182</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1495643395169785</v>
+        <v>0.1293758453282747</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03394431122299164</v>
+        <v>0.03169866871563059</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1672755728.84039</v>
+        <v>1707506170.627821</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08780814000436238</v>
+        <v>0.1089049726546618</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03060777498491978</v>
+        <v>0.03390420333211837</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1268235120.380959</v>
+        <v>1424944710.775802</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1117707724244998</v>
+        <v>0.10948428805598</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05058564223253557</v>
+        <v>0.04533890866727453</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1837689182.139375</v>
+        <v>1335447631.400652</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08998873059576501</v>
+        <v>0.1149513454825525</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02556533428334156</v>
+        <v>0.03678019615293092</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2979893291.626188</v>
+        <v>2902976257.659319</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2039059584499588</v>
+        <v>0.1898231516685861</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04950393398112306</v>
+        <v>0.04136458365845291</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>985533366.4105841</v>
+        <v>1551891245.809084</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08696736217238651</v>
+        <v>0.1085285584024252</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01763186244879741</v>
+        <v>0.02823311689818084</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1046617929.530067</v>
+        <v>1138609176.579301</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07291034532386748</v>
+        <v>0.07275825227846716</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03909539859642245</v>
+        <v>0.03607652131170527</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2565003858.856708</v>
+        <v>2428674824.414696</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1687193418281712</v>
+        <v>0.1294476445336592</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02794369975694984</v>
+        <v>0.02737388034527087</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2335707441.881051</v>
+        <v>1874906021.551063</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07155538879388181</v>
+        <v>0.09111705947494345</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03876903766160415</v>
+        <v>0.02734007592702254</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1436420544.542355</v>
+        <v>1748060483.218884</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09000398522366847</v>
+        <v>0.09180036433779661</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0286235556392242</v>
+        <v>0.02709413791721453</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1423035688.012422</v>
+        <v>1894543074.326512</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1220607310215802</v>
+        <v>0.129019758398862</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03238649035221843</v>
+        <v>0.02904029046513529</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1325730579.979988</v>
+        <v>1359976836.034153</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1453049798096391</v>
+        <v>0.1070072874985286</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04632242646036562</v>
+        <v>0.05559889736236443</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2705933789.017575</v>
+        <v>2491807102.78045</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1498841329794153</v>
+        <v>0.1078054410952628</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03901803899419479</v>
+        <v>0.03712807985082002</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2744930790.125459</v>
+        <v>4102893217.040143</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07924980994643996</v>
+        <v>0.1093355898841407</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02988471716302038</v>
+        <v>0.03858438430435424</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2691469581.576586</v>
+        <v>2870470292.865437</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1761201756103979</v>
+        <v>0.1935798270990894</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0176768350462259</v>
+        <v>0.02143972064366931</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2182986389.185551</v>
+        <v>1506752339.197996</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1014628917412171</v>
+        <v>0.08073830389055722</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0312485750822296</v>
+        <v>0.03064258659404605</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1958300925.48471</v>
+        <v>1813270284.331099</v>
       </c>
       <c r="F45" t="n">
-        <v>0.18520848276119</v>
+        <v>0.1601482312496264</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04388108934180263</v>
+        <v>0.03998415151202239</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4198204570.073395</v>
+        <v>4811597375.065886</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1529974680717767</v>
+        <v>0.1456764558540971</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06081185634273548</v>
+        <v>0.03807553677157489</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4641774057.91248</v>
+        <v>4492593232.343391</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1577128825156909</v>
+        <v>0.1334096598121433</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03933101980939323</v>
+        <v>0.03948245400243457</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4443925824.807244</v>
+        <v>3263361976.716558</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07317744628823145</v>
+        <v>0.09017368170812406</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03742070628038897</v>
+        <v>0.02715681732126589</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1228633435.164103</v>
+        <v>1807637666.397745</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1615145563851603</v>
+        <v>0.1230132240268845</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04237405844134498</v>
+        <v>0.03104971166989463</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3090336286.289034</v>
+        <v>2906678208.959462</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1140767248254216</v>
+        <v>0.1308751935023089</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03635847313202716</v>
+        <v>0.03254063972858318</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>949456004.6278321</v>
+        <v>1393034284.610888</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1266549242075523</v>
+        <v>0.1683577887679688</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03674579975357373</v>
+        <v>0.03531440868212244</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3652767211.879644</v>
+        <v>4209203977.431338</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09383443772516732</v>
+        <v>0.1136029608784229</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04123039206172086</v>
+        <v>0.04720103859266531</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3198671392.793607</v>
+        <v>2327673858.460114</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1280978318853364</v>
+        <v>0.1549551127955557</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0252790106025945</v>
+        <v>0.02731706406923637</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4001364679.795332</v>
+        <v>3856077726.078408</v>
       </c>
       <c r="F54" t="n">
-        <v>0.127745087382361</v>
+        <v>0.1021280777490251</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05165468148209894</v>
+        <v>0.04059774053080581</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3377704843.300505</v>
+        <v>4593721022.907288</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1574870548816902</v>
+        <v>0.1766299244889881</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02963916209147667</v>
+        <v>0.03110484891994942</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1842639681.341149</v>
+        <v>1460697153.853128</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1450327176318217</v>
+        <v>0.1139637063374945</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05286969251232469</v>
+        <v>0.05044008172031878</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3661209577.440668</v>
+        <v>3535673158.748153</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1477667163387337</v>
+        <v>0.145728967515368</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01986644901685953</v>
+        <v>0.02611631182374765</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1269104246.297992</v>
+        <v>1205432558.394568</v>
       </c>
       <c r="F58" t="n">
-        <v>0.175461004952026</v>
+        <v>0.1455734895022813</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03077855769594805</v>
+        <v>0.02673822080729935</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4558225282.526777</v>
+        <v>5398022421.9177</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1200410519065708</v>
+        <v>0.08750531156776774</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04852744421034119</v>
+        <v>0.03544907815703939</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3043921079.031726</v>
+        <v>3726921474.484829</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1926408861368772</v>
+        <v>0.1928079033328783</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02290670404181085</v>
+        <v>0.02938960543285403</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3286683783.86504</v>
+        <v>2978786029.084669</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1481200261085242</v>
+        <v>0.1391674412428099</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02717223687426774</v>
+        <v>0.02441269983755015</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2001224687.987498</v>
+        <v>1315313782.798275</v>
       </c>
       <c r="F62" t="n">
-        <v>0.178369789417292</v>
+        <v>0.1730754110965511</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04329564106400582</v>
+        <v>0.03187872766227206</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3470305447.256275</v>
+        <v>3960127606.535978</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08545023633373645</v>
+        <v>0.0934658580185761</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04009605831437742</v>
+        <v>0.03422879489012078</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4618444657.347963</v>
+        <v>5502128178.854406</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1654795437675474</v>
+        <v>0.1291974346861169</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03397939891688384</v>
+        <v>0.02623618138414019</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4322348687.735821</v>
+        <v>4854406968.641149</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1243452591336416</v>
+        <v>0.1561799226689106</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02892200007544671</v>
+        <v>0.02794296204846011</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4501119891.973367</v>
+        <v>4787812528.211156</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1076735868219883</v>
+        <v>0.124947738297674</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03790194919393657</v>
+        <v>0.03668241489238937</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3078849172.621191</v>
+        <v>3120317686.703409</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08528799578996556</v>
+        <v>0.06741514272772395</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04338460480047476</v>
+        <v>0.04844547097072735</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6055893800.183949</v>
+        <v>5616020351.006587</v>
       </c>
       <c r="F68" t="n">
-        <v>0.143269849978102</v>
+        <v>0.1372325028764187</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03350629464012818</v>
+        <v>0.04986368117549662</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1777869043.626812</v>
+        <v>1538914651.533626</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1330213360567447</v>
+        <v>0.1256856998545905</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0416656180636893</v>
+        <v>0.04923523145690991</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3079692717.955082</v>
+        <v>3196206579.377909</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1017190782420176</v>
+        <v>0.07434791624163527</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04539070433427465</v>
+        <v>0.04043934730053889</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3859213854.876898</v>
+        <v>5365861791.480354</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1598401701939462</v>
+        <v>0.1341850994726612</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0327204409429825</v>
+        <v>0.02790210476515039</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1865268186.660292</v>
+        <v>2058854622.49516</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09554065492068438</v>
+        <v>0.09342435140241076</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03383518595705442</v>
+        <v>0.0426194147557243</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2919685531.670599</v>
+        <v>3082369053.030859</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07801345648654691</v>
+        <v>0.08719370124773997</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04776861901006586</v>
+        <v>0.04522497285302808</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2821626694.685385</v>
+        <v>2731590777.478563</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1407412285289028</v>
+        <v>0.1119238925256084</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02586606222248504</v>
+        <v>0.03000564106954911</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1930540790.119082</v>
+        <v>2431877291.126746</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1395205410600003</v>
+        <v>0.1050107100660007</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02900038299349839</v>
+        <v>0.03665292497242639</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3599298654.50911</v>
+        <v>5276665860.558966</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1023768271374933</v>
+        <v>0.09269384000381177</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03095687505419631</v>
+        <v>0.02694894304968921</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2164673978.185125</v>
+        <v>1764898871.154994</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1728666428211278</v>
+        <v>0.1139112991715694</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02039547262983204</v>
+        <v>0.02894512279563849</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4719438243.414296</v>
+        <v>4789850122.051554</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08328463648940647</v>
+        <v>0.1025280717302513</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03530222602677726</v>
+        <v>0.05694830257960293</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1720450971.580449</v>
+        <v>1637020067.026932</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1278575970066761</v>
+        <v>0.1554161628135823</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02817470728891776</v>
+        <v>0.03724711507636115</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5630660539.355315</v>
+        <v>3410061330.165125</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1100579236888023</v>
+        <v>0.09303260170362776</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02805526540258807</v>
+        <v>0.02577306167608392</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4767737100.05423</v>
+        <v>3739375673.794153</v>
       </c>
       <c r="F81" t="n">
-        <v>0.120631910298052</v>
+        <v>0.08882816938695401</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02149504529793069</v>
+        <v>0.03165561425448758</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3743506460.776902</v>
+        <v>4625410736.722866</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2015517951679797</v>
+        <v>0.2135368496777903</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02645375690395762</v>
+        <v>0.02042393991465801</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2185465719.757135</v>
+        <v>1853457441.189467</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1366541975674215</v>
+        <v>0.09836555156671759</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03479504260801135</v>
+        <v>0.0366652699711932</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2027421435.241496</v>
+        <v>1883612765.654237</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07783182745693319</v>
+        <v>0.0912714648883825</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04737438811690553</v>
+        <v>0.0347995230911143</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2868765745.298688</v>
+        <v>2329851283.143595</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1238627884035611</v>
+        <v>0.1466596479311739</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05672524773901444</v>
+        <v>0.03678702184527319</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2376228227.922042</v>
+        <v>2461288414.63639</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1578376631046412</v>
+        <v>0.1227227709646323</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02426131028698584</v>
+        <v>0.02141957580559768</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1408501101.947066</v>
+        <v>1206273402.501758</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1844337588017359</v>
+        <v>0.1284053834817074</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04020744827459103</v>
+        <v>0.03226460318663237</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2662134332.002252</v>
+        <v>3721351256.616671</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1763985817022304</v>
+        <v>0.1292871236793719</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02575751637124391</v>
+        <v>0.03210755189689426</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3402681409.637644</v>
+        <v>3033050400.493059</v>
       </c>
       <c r="F89" t="n">
-        <v>0.135317746927844</v>
+        <v>0.1546773328778652</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03301560759763093</v>
+        <v>0.03618840616100296</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2105953597.551133</v>
+        <v>1896042999.927288</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1077369685482045</v>
+        <v>0.1375317800825656</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04956410082650865</v>
+        <v>0.03627078696870994</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1521796519.517974</v>
+        <v>1768463713.220075</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1360121262746245</v>
+        <v>0.1585701185498215</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05846716682355035</v>
+        <v>0.03988685952485978</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2530631007.214931</v>
+        <v>1942958660.952988</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08467621145267558</v>
+        <v>0.1034968152781696</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03624550755485972</v>
+        <v>0.03936663603360287</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4310915476.109002</v>
+        <v>3209209083.559327</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1422592283106222</v>
+        <v>0.132520281046545</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03452022390054733</v>
+        <v>0.04965793298904891</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1926219446.971049</v>
+        <v>1982232347.959516</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1434047267689309</v>
+        <v>0.1295233847539754</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03649348452300934</v>
+        <v>0.03479079205282782</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2585353159.27906</v>
+        <v>3251288770.650205</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1006993068024304</v>
+        <v>0.1171909796681077</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03907194387595777</v>
+        <v>0.03410494483226117</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1755568347.554749</v>
+        <v>2023566173.214203</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1201495386743446</v>
+        <v>0.1166984367957376</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0335276683476567</v>
+        <v>0.0406803583011117</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5327497684.294786</v>
+        <v>4137194878.193596</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1701184817971609</v>
+        <v>0.1068796295362539</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02017752285158584</v>
+        <v>0.01979705942274097</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3061646346.711505</v>
+        <v>3061235209.889632</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1273960986024753</v>
+        <v>0.09302047490974379</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02953755882685666</v>
+        <v>0.02977379232738984</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2494305387.999939</v>
+        <v>3094232037.157827</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1140364844516028</v>
+        <v>0.1241077693035632</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02931336386901984</v>
+        <v>0.02361050805620914</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4047273151.172377</v>
+        <v>3676842414.666161</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1677424836576071</v>
+        <v>0.1503969778937889</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01938567353793702</v>
+        <v>0.02100367949154796</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3005685816.177766</v>
+        <v>3281627224.64635</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1655415855982532</v>
+        <v>0.1940871912045953</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0407539786938022</v>
+        <v>0.04956490103495273</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_435.xlsx
+++ b/output/fit_clients/fit_round_435.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2375597602.771551</v>
+        <v>2291100055.944552</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09128908911228496</v>
+        <v>0.1066598468322698</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03138802361318384</v>
+        <v>0.04360498279416378</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2571942446.418119</v>
+        <v>2106742544.352623</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1256508205135575</v>
+        <v>0.1360382841748889</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03929581246683699</v>
+        <v>0.04927835057762015</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3990883130.631559</v>
+        <v>3756424229.340674</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1177868878107501</v>
+        <v>0.1644006859398323</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02693131815092746</v>
+        <v>0.02729592342087844</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>220</v>
+      </c>
+      <c r="J4" t="n">
+        <v>435</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3785116075.072468</v>
+        <v>3961094219.394979</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07238768941848683</v>
+        <v>0.09526573661272111</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03980081422877041</v>
+        <v>0.04641540522892093</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>180</v>
+      </c>
+      <c r="J5" t="n">
+        <v>435</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2213573634.423946</v>
+        <v>2750700637.071786</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1137371826875501</v>
+        <v>0.1116696896775054</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05647237381778887</v>
+        <v>0.05508763617305035</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3108343214.209201</v>
+        <v>2365111546.921347</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09313189583469018</v>
+        <v>0.07259645916457837</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03460287874958724</v>
+        <v>0.03355804213988754</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3240160546.614559</v>
+        <v>2774393055.758363</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1631158914298511</v>
+        <v>0.1616682123208917</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02367364639161133</v>
+        <v>0.02524239107324758</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>118</v>
+      </c>
+      <c r="J8" t="n">
+        <v>433</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1767821776.860662</v>
+        <v>1824055886.197007</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1850571777129605</v>
+        <v>0.1665758796188395</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02552735047202495</v>
+        <v>0.03312191746452377</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5232413470.987682</v>
+        <v>3861379186.306288</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2066282778378812</v>
+        <v>0.1317043217736958</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04729973119851225</v>
+        <v>0.04429650255262431</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>342</v>
+      </c>
+      <c r="J10" t="n">
+        <v>435</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +810,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3089849372.993263</v>
+        <v>3686372550.171357</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1589350819663586</v>
+        <v>0.1450356874942956</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03278133381566523</v>
+        <v>0.03456205344959213</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>179</v>
+      </c>
+      <c r="J11" t="n">
+        <v>435</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +851,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3320565973.250834</v>
+        <v>3014985984.206432</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1205736026755719</v>
+        <v>0.1944227641240162</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05202180012572605</v>
+        <v>0.04112460760167144</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +880,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3601473814.822745</v>
+        <v>3882210889.678657</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09475132394840904</v>
+        <v>0.06134405307396949</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02784571083761587</v>
+        <v>0.02792420659078489</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>227</v>
+      </c>
+      <c r="J13" t="n">
+        <v>434</v>
+      </c>
+      <c r="K13" t="n">
+        <v>37.92340967806806</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +917,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2657894748.848124</v>
+        <v>3879621741.62161</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1342145284271908</v>
+        <v>0.137365853717014</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04328803028704221</v>
+        <v>0.03383021156449412</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>93</v>
+      </c>
+      <c r="J14" t="n">
+        <v>435</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64.10289386483763</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1394974486.755495</v>
+        <v>1579671162.074893</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1024967348495873</v>
+        <v>0.1063960085682604</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04117528293797279</v>
+        <v>0.0317156870074488</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2681129687.585506</v>
+        <v>2379880301.623015</v>
       </c>
       <c r="F16" t="n">
-        <v>0.104488765772116</v>
+        <v>0.09736112890120993</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05159634143242048</v>
+        <v>0.04875426435271644</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3249049858.52226</v>
+        <v>3386646380.935943</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1703525956015371</v>
+        <v>0.1691477683785729</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03827193698115702</v>
+        <v>0.05163557031733189</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>212</v>
+      </c>
+      <c r="J17" t="n">
+        <v>434</v>
+      </c>
+      <c r="K17" t="n">
+        <v>27.70191392908615</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3702857525.217327</v>
+        <v>3013164409.744104</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1274651231358941</v>
+        <v>0.1484024660961436</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02932987042382565</v>
+        <v>0.02980603707902625</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>427</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1074953976.985704</v>
+        <v>1254995177.231974</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1459826768998829</v>
+        <v>0.1209334458039573</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02361787245634313</v>
+        <v>0.01846379913567009</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2775101703.189262</v>
+        <v>2080929117.239186</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1556881123966908</v>
+        <v>0.148831305309769</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02343529921855821</v>
+        <v>0.02004522551890257</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2231618068.75328</v>
+        <v>1723499470.112442</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07771644945242624</v>
+        <v>0.09583528960544856</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0452133033323691</v>
+        <v>0.03206391477565407</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3556819660.767831</v>
+        <v>3927332122.857377</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1009011705610364</v>
+        <v>0.1008531611264022</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05030205440455171</v>
+        <v>0.04840079324249918</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>127</v>
+      </c>
+      <c r="J22" t="n">
+        <v>435</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47.81353878068435</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1382151506.99828</v>
+        <v>1480556237.234776</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1819319960997708</v>
+        <v>0.1843309380909481</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04456386982583599</v>
+        <v>0.04772071243595938</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3356674444.20318</v>
+        <v>3188217232.857269</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1466416160914623</v>
+        <v>0.13862299625049</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03126326931321417</v>
+        <v>0.03011575983087597</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>137</v>
+      </c>
+      <c r="J24" t="n">
+        <v>429</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1185719349.130267</v>
+        <v>1485408851.121524</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09666120335661563</v>
+        <v>0.08943671796318041</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02913805131497017</v>
+        <v>0.02810236732019122</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1415959439.120114</v>
+        <v>1170744955.090253</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1030328553320205</v>
+        <v>0.124810345979284</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03376120697315763</v>
+        <v>0.03484870008608234</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3890339552.843016</v>
+        <v>3107812631.105623</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1484461813093203</v>
+        <v>0.1331001079380591</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02014525189698131</v>
+        <v>0.01933950821830801</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>187</v>
+      </c>
+      <c r="J27" t="n">
+        <v>434</v>
+      </c>
+      <c r="K27" t="n">
+        <v>26.07508810163256</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3275331137.114902</v>
+        <v>3511479459.362617</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0969801725075909</v>
+        <v>0.1243721904459248</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04476654551885371</v>
+        <v>0.04071082816065519</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>106</v>
+      </c>
+      <c r="J28" t="n">
+        <v>431</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4354344421.430182</v>
+        <v>5616909254.404028</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1293758453282747</v>
+        <v>0.1079895446679176</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03169866871563059</v>
+        <v>0.03440528629589642</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>358</v>
+      </c>
+      <c r="J29" t="n">
+        <v>435</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1707506170.627821</v>
+        <v>2313746066.958123</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1089049726546618</v>
+        <v>0.1387727435837182</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03390420333211837</v>
+        <v>0.03751584818372227</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1424944710.775802</v>
+        <v>1110077222.56082</v>
       </c>
       <c r="F31" t="n">
-        <v>0.10948428805598</v>
+        <v>0.0937999852954705</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04533890866727453</v>
+        <v>0.04024589647555327</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1335447631.400652</v>
+        <v>1650942431.827519</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1149513454825525</v>
+        <v>0.1087808587169333</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03678019615293092</v>
+        <v>0.02502634726451836</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2902976257.659319</v>
+        <v>2053519081.852047</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1898231516685861</v>
+        <v>0.1453008024972425</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04136458365845291</v>
+        <v>0.04358362398153687</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1551891245.809084</v>
+        <v>1290863941.58811</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1085285584024252</v>
+        <v>0.1187052336189268</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02823311689818084</v>
+        <v>0.02774227571451904</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1138609176.579301</v>
+        <v>1201802730.462244</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07275825227846716</v>
+        <v>0.1163642929077978</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03607652131170527</v>
+        <v>0.03274029005625053</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2428674824.414696</v>
+        <v>2512136592.663239</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1294476445336592</v>
+        <v>0.1370421299424002</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02737388034527087</v>
+        <v>0.02851014896841451</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1874906021.551063</v>
+        <v>2880273765.692442</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09111705947494345</v>
+        <v>0.1084355046082954</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02734007592702254</v>
+        <v>0.02997159719128293</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1748060483.218884</v>
+        <v>1818168684.954526</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09180036433779661</v>
+        <v>0.1184981719623031</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02709413791721453</v>
+        <v>0.03592843594277637</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1894543074.326512</v>
+        <v>1761385491.834214</v>
       </c>
       <c r="F39" t="n">
-        <v>0.129019758398862</v>
+        <v>0.1302492391366795</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02904029046513529</v>
+        <v>0.02707809089413344</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1359976836.034153</v>
+        <v>1397648154.76969</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1070072874985286</v>
+        <v>0.1336195903599246</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05559889736236443</v>
+        <v>0.05283238448533795</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2491807102.78045</v>
+        <v>2314980659.33813</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1078054410952628</v>
+        <v>0.1498604620265946</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03712807985082002</v>
+        <v>0.03287632952939903</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4102893217.040143</v>
+        <v>3984500665.451688</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1093355898841407</v>
+        <v>0.1012890003914467</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03858438430435424</v>
+        <v>0.03251766999424521</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>188</v>
+      </c>
+      <c r="J42" t="n">
+        <v>435</v>
+      </c>
+      <c r="K42" t="n">
+        <v>45.07037288583179</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2870470292.865437</v>
+        <v>2580627393.854857</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1935798270990894</v>
+        <v>0.1309993560589433</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02143972064366931</v>
+        <v>0.01711720825793884</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1506752339.197996</v>
+        <v>1449001223.789457</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08073830389055722</v>
+        <v>0.06218812520706556</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03064258659404605</v>
+        <v>0.03540995617841179</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1813270284.331099</v>
+        <v>1748771295.163986</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1601482312496264</v>
+        <v>0.1261147302066259</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03998415151202239</v>
+        <v>0.0545830005637743</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4811597375.065886</v>
+        <v>4434138670.34287</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1456764558540971</v>
+        <v>0.1187025109944263</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03807553677157489</v>
+        <v>0.05368749478178528</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>259</v>
+      </c>
+      <c r="J46" t="n">
+        <v>434</v>
+      </c>
+      <c r="K46" t="n">
+        <v>38.79790218019794</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4492593232.343391</v>
+        <v>4905510859.069996</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1334096598121433</v>
+        <v>0.2034345020602267</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03948245400243457</v>
+        <v>0.05533567154978637</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>195</v>
+      </c>
+      <c r="J47" t="n">
+        <v>435</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3263361976.716558</v>
+        <v>3835337528.624437</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09017368170812406</v>
+        <v>0.1040019841319452</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02715681732126589</v>
+        <v>0.03195202483042245</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>221</v>
+      </c>
+      <c r="J48" t="n">
+        <v>435</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1807637666.397745</v>
+        <v>1525247110.644136</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1230132240268845</v>
+        <v>0.1265101544877952</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03104971166989463</v>
+        <v>0.02783567512009174</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2906678208.959462</v>
+        <v>4001266081.122017</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1308751935023089</v>
+        <v>0.1377444566183003</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03254063972858318</v>
+        <v>0.05175644985431798</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>152</v>
+      </c>
+      <c r="J50" t="n">
+        <v>435</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1393034284.610888</v>
+        <v>965393605.7658588</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1683577887679688</v>
+        <v>0.1485376805061077</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03531440868212244</v>
+        <v>0.04426944386805417</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4209203977.431338</v>
+        <v>3556529910.787345</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1136029608784229</v>
+        <v>0.0990809159267815</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04720103859266531</v>
+        <v>0.05806438119990124</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>249</v>
+      </c>
+      <c r="J52" t="n">
+        <v>434</v>
+      </c>
+      <c r="K52" t="n">
+        <v>31.51127787409382</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2327673858.460114</v>
+        <v>3171247670.554601</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1549551127955557</v>
+        <v>0.1375184423680594</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02731706406923637</v>
+        <v>0.03358800172110525</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>64</v>
+      </c>
+      <c r="J53" t="n">
+        <v>433</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3856077726.078408</v>
+        <v>4002946541.027453</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1021280777490251</v>
+        <v>0.1486301955064871</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04059774053080581</v>
+        <v>0.03272868806881441</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>231</v>
+      </c>
+      <c r="J54" t="n">
+        <v>435</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4593721022.907288</v>
+        <v>3690789481.474577</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1766299244889881</v>
+        <v>0.1491353979396504</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03110484891994942</v>
+        <v>0.02388733884302107</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>215</v>
+      </c>
+      <c r="J55" t="n">
+        <v>435</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1460697153.853128</v>
+        <v>1243719806.621686</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1139637063374945</v>
+        <v>0.1111685445321975</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05044008172031878</v>
+        <v>0.05125326566475411</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3535673158.748153</v>
+        <v>3046611784.358716</v>
       </c>
       <c r="F57" t="n">
-        <v>0.145728967515368</v>
+        <v>0.1166408026460838</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02611631182374765</v>
+        <v>0.02354225363351267</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>189</v>
+      </c>
+      <c r="J57" t="n">
+        <v>432</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2477,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1205432558.394568</v>
+        <v>1558284881.618724</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1455734895022813</v>
+        <v>0.1604280458840416</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02673822080729935</v>
+        <v>0.02948629295962174</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5398022421.9177</v>
+        <v>4377568460.336762</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08750531156776774</v>
+        <v>0.08294140266890669</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03544907815703939</v>
+        <v>0.03346620025049832</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>213</v>
+      </c>
+      <c r="J59" t="n">
+        <v>434</v>
+      </c>
+      <c r="K59" t="n">
+        <v>37.34866778350336</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2543,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3726921474.484829</v>
+        <v>2453329215.231171</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1928079033328783</v>
+        <v>0.1745647748773769</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02938960543285403</v>
+        <v>0.02132682568217112</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>85</v>
+      </c>
+      <c r="J60" t="n">
+        <v>434</v>
+      </c>
+      <c r="K60" t="n">
+        <v>24.2547494305577</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2978786029.084669</v>
+        <v>2512264790.161908</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1391674412428099</v>
+        <v>0.1221734612729214</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02441269983755015</v>
+        <v>0.02079981746031627</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1315313782.798275</v>
+        <v>1655574572.29011</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1730754110965511</v>
+        <v>0.1947330980026499</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03187872766227206</v>
+        <v>0.0403865974724148</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3960127606.535978</v>
+        <v>4791770198.939402</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0934658580185761</v>
+        <v>0.1023559107550546</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03422879489012078</v>
+        <v>0.04353736086526776</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>217</v>
+      </c>
+      <c r="J63" t="n">
+        <v>434</v>
+      </c>
+      <c r="K63" t="n">
+        <v>40.24224839220813</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5502128178.854406</v>
+        <v>3476296465.675806</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1291974346861169</v>
+        <v>0.152908435398883</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02623618138414019</v>
+        <v>0.03261526649571836</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>218</v>
+      </c>
+      <c r="J64" t="n">
+        <v>434</v>
+      </c>
+      <c r="K64" t="n">
+        <v>30.49382087696302</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4854406968.641149</v>
+        <v>6022571109.082072</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1561799226689106</v>
+        <v>0.1398960010054029</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02794296204846011</v>
+        <v>0.02326113113814413</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>315</v>
+      </c>
+      <c r="J65" t="n">
+        <v>434</v>
+      </c>
+      <c r="K65" t="n">
+        <v>38.29995446206122</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4787812528.211156</v>
+        <v>5168552775.055399</v>
       </c>
       <c r="F66" t="n">
-        <v>0.124947738297674</v>
+        <v>0.1034592974643595</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03668241489238937</v>
+        <v>0.03709959838006769</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>214</v>
+      </c>
+      <c r="J66" t="n">
+        <v>435</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3120317686.703409</v>
+        <v>2405116777.622396</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06741514272772395</v>
+        <v>0.07096618914460405</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04844547097072735</v>
+        <v>0.04624198015481415</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5616020351.006587</v>
+        <v>4618469435.952866</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1372325028764187</v>
+        <v>0.1368740196445781</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04986368117549662</v>
+        <v>0.04579308281529525</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>237</v>
+      </c>
+      <c r="J68" t="n">
+        <v>435</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1538914651.533626</v>
+        <v>2042600298.577418</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1256856998545905</v>
+        <v>0.1351304981184065</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04923523145690991</v>
+        <v>0.05725287514810164</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2901,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3196206579.377909</v>
+        <v>3697515964.503127</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07434791624163527</v>
+        <v>0.08020440982180396</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04043934730053889</v>
+        <v>0.04195292701565904</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>62</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="n">
+        <v>51.0109012733048</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5365861791.480354</v>
+        <v>4433377637.981442</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1341850994726612</v>
+        <v>0.1649845424416054</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02790210476515039</v>
+        <v>0.0275448258520684</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>301</v>
+      </c>
+      <c r="J71" t="n">
+        <v>434</v>
+      </c>
+      <c r="K71" t="n">
+        <v>37.27024985785471</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2058854622.49516</v>
+        <v>1901252429.987072</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09342435140241076</v>
+        <v>0.1041167803265046</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0426194147557243</v>
+        <v>0.05162242552151936</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3082369053.030859</v>
+        <v>3566248636.378399</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08719370124773997</v>
+        <v>0.09313416347897313</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04522497285302808</v>
+        <v>0.03807335883141537</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" t="n">
+        <v>435</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2731590777.478563</v>
+        <v>3250297065.973128</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1119238925256084</v>
+        <v>0.1713217536070493</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03000564106954911</v>
+        <v>0.02607815232373645</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>127</v>
+      </c>
+      <c r="J74" t="n">
+        <v>432</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2431877291.126746</v>
+        <v>2419416536.803274</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1050107100660007</v>
+        <v>0.1651458143946745</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03665292497242639</v>
+        <v>0.03475372366760687</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5276665860.558966</v>
+        <v>4909424796.161787</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09269384000381177</v>
+        <v>0.1060354991771167</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02694894304968921</v>
+        <v>0.03071010792000604</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>207</v>
+      </c>
+      <c r="J76" t="n">
+        <v>435</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1764898871.154994</v>
+        <v>1794186806.209063</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1139112991715694</v>
+        <v>0.1851937108541071</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02894512279563849</v>
+        <v>0.02228085734633193</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4789850122.051554</v>
+        <v>3180152398.935108</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1025280717302513</v>
+        <v>0.1051180381582762</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05694830257960293</v>
+        <v>0.04012608614228899</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>218</v>
+      </c>
+      <c r="J78" t="n">
+        <v>433</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1637020067.026932</v>
+        <v>1542931615.132791</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1554161628135823</v>
+        <v>0.140062325078401</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03724711507636115</v>
+        <v>0.03892690771166046</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3410061330.165125</v>
+        <v>4303313451.890824</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09303260170362776</v>
+        <v>0.07766834903579437</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02577306167608392</v>
+        <v>0.02473621367201692</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>212</v>
+      </c>
+      <c r="J80" t="n">
+        <v>434</v>
+      </c>
+      <c r="K80" t="n">
+        <v>34.83365730011866</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3298,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3739375673.794153</v>
+        <v>3303874695.12938</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08882816938695401</v>
+        <v>0.110320714871429</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03165561425448758</v>
+        <v>0.03039149045392711</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>201</v>
+      </c>
+      <c r="J81" t="n">
+        <v>433</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4625410736.722866</v>
+        <v>4411382158.479778</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2135368496777903</v>
+        <v>0.2098183541523154</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02042393991465801</v>
+        <v>0.02849819072275857</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>293</v>
+      </c>
+      <c r="J82" t="n">
+        <v>434</v>
+      </c>
+      <c r="K82" t="n">
+        <v>38.53652367590908</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1853457441.189467</v>
+        <v>1918752876.378243</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09836555156671759</v>
+        <v>0.1018269321078395</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0366652699711932</v>
+        <v>0.03408077022720851</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1883612765.654237</v>
+        <v>2150876035.239861</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0912714648883825</v>
+        <v>0.1142864944210567</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0347995230911143</v>
+        <v>0.03787190695562122</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2329851283.143595</v>
+        <v>2839723222.757434</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1466596479311739</v>
+        <v>0.1513868943392445</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03678702184527319</v>
+        <v>0.04866452174580702</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>57</v>
+      </c>
+      <c r="J85" t="n">
+        <v>430</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2461288414.63639</v>
+        <v>2520228335.084951</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1227227709646323</v>
+        <v>0.1127017483326925</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02141957580559768</v>
+        <v>0.02037291656235517</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1206273402.501758</v>
+        <v>1118697312.307351</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1284053834817074</v>
+        <v>0.1242073371707811</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03226460318663237</v>
+        <v>0.03948568027762691</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3721351256.616671</v>
+        <v>3288080807.165763</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1292871236793719</v>
+        <v>0.1214244496267679</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03210755189689426</v>
+        <v>0.03676448382208604</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3033050400.493059</v>
+        <v>2907942644.952812</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1546773328778652</v>
+        <v>0.09657655266130485</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03618840616100296</v>
+        <v>0.03537459786651764</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1896042999.927288</v>
+        <v>1957434774.784889</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1375317800825656</v>
+        <v>0.1003809691358097</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03627078696870994</v>
+        <v>0.04240217286928821</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1768463713.220075</v>
+        <v>1324241128.587506</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1585701185498215</v>
+        <v>0.1320937274700838</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03988685952485978</v>
+        <v>0.03952232490983155</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1942958660.952988</v>
+        <v>2438439171.245204</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1034968152781696</v>
+        <v>0.1073533898810284</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03936663603360287</v>
+        <v>0.04735379924855481</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3209209083.559327</v>
+        <v>4185775680.480851</v>
       </c>
       <c r="F93" t="n">
-        <v>0.132520281046545</v>
+        <v>0.09532190693580204</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04965793298904891</v>
+        <v>0.04730493581044296</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>209</v>
+      </c>
+      <c r="J93" t="n">
+        <v>434</v>
+      </c>
+      <c r="K93" t="n">
+        <v>37.91961415137314</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1982232347.959516</v>
+        <v>1565049989.420244</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1295233847539754</v>
+        <v>0.1349938307275502</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03479079205282782</v>
+        <v>0.03903749507439307</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3251288770.650205</v>
+        <v>2917099917.914341</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1171909796681077</v>
+        <v>0.09638546697346448</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03410494483226117</v>
+        <v>0.04473358768959265</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2023566173.214203</v>
+        <v>1992509195.104468</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1166984367957376</v>
+        <v>0.1040578120846605</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0406803583011117</v>
+        <v>0.03417756772243728</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4137194878.193596</v>
+        <v>4634495619.405291</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1068796295362539</v>
+        <v>0.1174861717657189</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01979705942274097</v>
+        <v>0.02616838437801689</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>227</v>
+      </c>
+      <c r="J97" t="n">
+        <v>435</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3897,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3061235209.889632</v>
+        <v>3800696064.69222</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09302047490974379</v>
+        <v>0.1021784397741895</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02977379232738984</v>
+        <v>0.02561035924321696</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>110</v>
+      </c>
+      <c r="J98" t="n">
+        <v>435</v>
+      </c>
+      <c r="K98" t="n">
+        <v>50.33747354154765</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3094232037.157827</v>
+        <v>2266634294.444517</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1241077693035632</v>
+        <v>0.1090634087535308</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02361050805620914</v>
+        <v>0.03122283066194064</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3676842414.666161</v>
+        <v>3021398468.247856</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1503969778937889</v>
+        <v>0.1419699919272671</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02100367949154796</v>
+        <v>0.01786775093442268</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>202</v>
+      </c>
+      <c r="J100" t="n">
+        <v>433</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3281627224.64635</v>
+        <v>2653162303.098994</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1940871912045953</v>
+        <v>0.176535418067573</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04956490103495273</v>
+        <v>0.05355014877001783</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>39</v>
+      </c>
+      <c r="J101" t="n">
+        <v>434</v>
+      </c>
+      <c r="K101" t="n">
+        <v>39.23962921987287</v>
       </c>
     </row>
   </sheetData>
